--- a/Gym_Padel_DB.xlsx
+++ b/Gym_Padel_DB.xlsx
@@ -5,28 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ahmed\gym_project\gym_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual_studio\Windows_Form\GymGUI\Gym-Padel_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CEB559-4AEE-4112-894C-BA43FAE51740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5571BF-D817-4EA3-82BB-6AFCA0CA4AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Manager" sheetId="1" r:id="rId1"/>
-    <sheet name="Trainee" sheetId="2" r:id="rId2"/>
+    <sheet name="Manager" sheetId="2" r:id="rId1"/>
+    <sheet name="Trainees" sheetId="3" r:id="rId2"/>
+    <sheet name="Coach" sheetId="4" r:id="rId3"/>
+    <sheet name="GymClass" sheetId="5" r:id="rId4"/>
+    <sheet name="HallSystem" sheetId="6" r:id="rId5"/>
+    <sheet name="WorkoutPlan" sheetId="7" r:id="rId6"/>
+    <sheet name="Receptionist" sheetId="8" r:id="rId7"/>
+    <sheet name="Court" sheetId="9" r:id="rId8"/>
+    <sheet name="Booking" sheetId="10" r:id="rId9"/>
+    <sheet name="Subscription" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -34,13 +37,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Phone Number</t>
+    <t>Phone</t>
   </si>
   <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Date Of Birth</t>
+    <t>Date of Birth</t>
   </si>
   <si>
     <t>Email</t>
@@ -49,10 +52,82 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Is VIP</t>
+    <t>IsVIP</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>4-05-2025</t>
   </si>
   <si>
     <t>Salary</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Time Period</t>
+  </si>
+  <si>
+    <t>Number Of Sessions</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Class Coach</t>
+  </si>
+  <si>
+    <t>Hours Per Day</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>Lost Calories</t>
+  </si>
+  <si>
+    <t>Class Name Code</t>
+  </si>
+  <si>
+    <t>Name Code</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Is Available</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Is Confirmed</t>
+  </si>
+  <si>
+    <t>Trainee ID</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>End Date</t>
   </si>
 </sst>
 </file>
@@ -61,9 +136,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -92,10 +167,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="عادي" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -155,7 +230,7 @@
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -190,7 +265,7 @@
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -370,15 +445,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,8 +461,58 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -398,16 +521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245D1A8E-CF95-42CB-B598-7E6E43921C83}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,6 +554,274 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gym_Padel_DB.xlsx
+++ b/Gym_Padel_DB.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual_studio\Windows_Form\GymGUI\Gym-Padel_System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3abathiat\Akinator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5571BF-D817-4EA3-82BB-6AFCA0CA4AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD50FDA-B5ED-48B4-A048-420E6BA3951A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Manager" sheetId="2" r:id="rId1"/>
-    <sheet name="Trainees" sheetId="3" r:id="rId2"/>
-    <sheet name="Coach" sheetId="4" r:id="rId3"/>
-    <sheet name="GymClass" sheetId="5" r:id="rId4"/>
-    <sheet name="HallSystem" sheetId="6" r:id="rId5"/>
-    <sheet name="WorkoutPlan" sheetId="7" r:id="rId6"/>
-    <sheet name="Receptionist" sheetId="8" r:id="rId7"/>
-    <sheet name="Court" sheetId="9" r:id="rId8"/>
-    <sheet name="Booking" sheetId="10" r:id="rId9"/>
-    <sheet name="Subscription" sheetId="11" r:id="rId10"/>
+    <sheet name="Manager" sheetId="1" r:id="rId1"/>
+    <sheet name="Trainees" sheetId="2" r:id="rId2"/>
+    <sheet name="Coach" sheetId="3" r:id="rId3"/>
+    <sheet name="GymClass" sheetId="4" r:id="rId4"/>
+    <sheet name="HallSystem" sheetId="5" r:id="rId5"/>
+    <sheet name="WorkoutPlan" sheetId="6" r:id="rId6"/>
+    <sheet name="Receptionist" sheetId="7" r:id="rId7"/>
+    <sheet name="Court" sheetId="8" r:id="rId8"/>
+    <sheet name="Booking" sheetId="9" r:id="rId9"/>
+    <sheet name="Subscription" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="281">
   <si>
     <t>ID</t>
   </si>
@@ -37,6 +37,99 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>M001</t>
+  </si>
+  <si>
+    <t>Ahmed Mostafa</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>M002</t>
+  </si>
+  <si>
+    <t>Fatma Khaled</t>
+  </si>
+  <si>
+    <t>secure456</t>
+  </si>
+  <si>
+    <t>M003</t>
+  </si>
+  <si>
+    <t>Mohamed Samir</t>
+  </si>
+  <si>
+    <t>gym789</t>
+  </si>
+  <si>
+    <t>M004</t>
+  </si>
+  <si>
+    <t>Nourhan Ali</t>
+  </si>
+  <si>
+    <t>pass101</t>
+  </si>
+  <si>
+    <t>M005</t>
+  </si>
+  <si>
+    <t>Khaled Mahmoud</t>
+  </si>
+  <si>
+    <t>manage202</t>
+  </si>
+  <si>
+    <t>M006</t>
+  </si>
+  <si>
+    <t>Sara Ibrahim</t>
+  </si>
+  <si>
+    <t>admin303</t>
+  </si>
+  <si>
+    <t>M007</t>
+  </si>
+  <si>
+    <t>Omar Hassan</t>
+  </si>
+  <si>
+    <t>lead404</t>
+  </si>
+  <si>
+    <t>M008</t>
+  </si>
+  <si>
+    <t>Mona Adel</t>
+  </si>
+  <si>
+    <t>boss505</t>
+  </si>
+  <si>
+    <t>M009</t>
+  </si>
+  <si>
+    <t>Youssef Amr</t>
+  </si>
+  <si>
+    <t>head606</t>
+  </si>
+  <si>
+    <t>M010</t>
+  </si>
+  <si>
+    <t>Hala Rami</t>
+  </si>
+  <si>
+    <t>chief707</t>
+  </si>
+  <si>
     <t>Phone</t>
   </si>
   <si>
@@ -49,24 +142,273 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>IsVIP</t>
   </si>
   <si>
-    <t/>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Amr Tarek</t>
+  </si>
+  <si>
+    <t>01012345678</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>4-05-2025</t>
+    <t>1995-03-15</t>
+  </si>
+  <si>
+    <t>amr.tarek95@gmail.com</t>
+  </si>
+  <si>
+    <t>trainee123</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Laila Mohamed</t>
+  </si>
+  <si>
+    <t>01123456789</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>1998-07-22</t>
+  </si>
+  <si>
+    <t>laila.moh98@yahoo.com</t>
+  </si>
+  <si>
+    <t>fit456</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Hassan Omar</t>
+  </si>
+  <si>
+    <t>01234567890</t>
+  </si>
+  <si>
+    <t>1993-11-10</t>
+  </si>
+  <si>
+    <t>hassan.omar93@outlook.com</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Rania Ahmed</t>
+  </si>
+  <si>
+    <t>01556789012</t>
+  </si>
+  <si>
+    <t>2000-01-05</t>
+  </si>
+  <si>
+    <t>rania.ahmed00@gmail.com</t>
+  </si>
+  <si>
+    <t>active101</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Mahmoud Sami</t>
+  </si>
+  <si>
+    <t>01098765432</t>
+  </si>
+  <si>
+    <t>1996-09-18</t>
+  </si>
+  <si>
+    <t>mahmoud.sami96@yahoo.com</t>
+  </si>
+  <si>
+    <t>sport202</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Nadine Karim</t>
+  </si>
+  <si>
+    <t>01187654321</t>
+  </si>
+  <si>
+    <t>1997-04-30</t>
+  </si>
+  <si>
+    <t>nadine.karim97@gmail.com</t>
+  </si>
+  <si>
+    <t>move303</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Karim Fathy</t>
+  </si>
+  <si>
+    <t>01265432109</t>
+  </si>
+  <si>
+    <t>1994-12-25</t>
+  </si>
+  <si>
+    <t>karim.fathy94@outlook.com</t>
+  </si>
+  <si>
+    <t>run404</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Aya Mostafa</t>
+  </si>
+  <si>
+    <t>01543210987</t>
+  </si>
+  <si>
+    <t>1999-06-12</t>
+  </si>
+  <si>
+    <t>aya.mostafa99@yahoo.com</t>
+  </si>
+  <si>
+    <t>fit505</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Tamer Ezzat</t>
+  </si>
+  <si>
+    <t>01032109876</t>
+  </si>
+  <si>
+    <t>1992-02-08</t>
+  </si>
+  <si>
+    <t>tamer.ezzat92@gmail.com</t>
+  </si>
+  <si>
+    <t>lift606</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Shaimaa Reda</t>
+  </si>
+  <si>
+    <t>01110987654</t>
+  </si>
+  <si>
+    <t>2001-08-14</t>
+  </si>
+  <si>
+    <t>shaimaa.reda01@outlook.com</t>
+  </si>
+  <si>
+    <t>jump707</t>
   </si>
   <si>
     <t>Salary</t>
   </si>
   <si>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>Ibrahim Yasser</t>
+  </si>
+  <si>
+    <t>coach123</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>Dina Sherif</t>
+  </si>
+  <si>
+    <t>train456</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t>Mostafa Hany</t>
+  </si>
+  <si>
+    <t>fit789</t>
+  </si>
+  <si>
+    <t>C004</t>
+  </si>
+  <si>
+    <t>Heba Gamal</t>
+  </si>
+  <si>
+    <t>lead101</t>
+  </si>
+  <si>
+    <t>C005</t>
+  </si>
+  <si>
+    <t>Adel Nour</t>
+  </si>
+  <si>
+    <t>C006</t>
+  </si>
+  <si>
+    <t>Marwa Taha</t>
+  </si>
+  <si>
+    <t>C007</t>
+  </si>
+  <si>
+    <t>Sayed Zaki</t>
+  </si>
+  <si>
+    <t>C008</t>
+  </si>
+  <si>
+    <t>Lina Magdy</t>
+  </si>
+  <si>
+    <t>C009</t>
+  </si>
+  <si>
+    <t>Fady Rami</t>
+  </si>
+  <si>
+    <t>C010</t>
+  </si>
+  <si>
+    <t>Reem Hazem</t>
+  </si>
+  <si>
     <t>Capacity</t>
   </si>
   <si>
@@ -88,6 +430,150 @@
     <t>Class Coach</t>
   </si>
   <si>
+    <t>GC001</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>Padel</t>
+  </si>
+  <si>
+    <t>GC002</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>Zumba</t>
+  </si>
+  <si>
+    <t>GC003</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>Yoga</t>
+  </si>
+  <si>
+    <t>GC004</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>Strength Training</t>
+  </si>
+  <si>
+    <t>GC005</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>Cardio</t>
+  </si>
+  <si>
+    <t>GC006</t>
+  </si>
+  <si>
+    <t>GC007</t>
+  </si>
+  <si>
+    <t>GC008</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>GC009</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>GC010</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>H001</t>
+  </si>
+  <si>
+    <t>Main Gym Hall</t>
+  </si>
+  <si>
+    <t>H002</t>
+  </si>
+  <si>
+    <t>Padel Court 1</t>
+  </si>
+  <si>
+    <t>H003</t>
+  </si>
+  <si>
+    <t>Padel Court 2</t>
+  </si>
+  <si>
+    <t>H004</t>
+  </si>
+  <si>
+    <t>Yoga Studio</t>
+  </si>
+  <si>
+    <t>H005</t>
+  </si>
+  <si>
+    <t>Cardio Zone</t>
+  </si>
+  <si>
+    <t>H006</t>
+  </si>
+  <si>
+    <t>Strength Training Area</t>
+  </si>
+  <si>
+    <t>H007</t>
+  </si>
+  <si>
+    <t>Zumba Studio</t>
+  </si>
+  <si>
+    <t>H008</t>
+  </si>
+  <si>
+    <t>Multipurpose Hall</t>
+  </si>
+  <si>
+    <t>H009</t>
+  </si>
+  <si>
+    <t>Padel Court 3</t>
+  </si>
+  <si>
+    <t>H010</t>
+  </si>
+  <si>
+    <t>Spin Studio</t>
+  </si>
+  <si>
     <t>Hours Per Day</t>
   </si>
   <si>
@@ -100,6 +586,135 @@
     <t>Class Name Code</t>
   </si>
   <si>
+    <t>WP001</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>WP002</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>WP003</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>WP004</t>
+  </si>
+  <si>
+    <t>WP005</t>
+  </si>
+  <si>
+    <t>WP006</t>
+  </si>
+  <si>
+    <t>WP007</t>
+  </si>
+  <si>
+    <t>WP008</t>
+  </si>
+  <si>
+    <t>WP009</t>
+  </si>
+  <si>
+    <t>WP010</t>
+  </si>
+  <si>
+    <t>R001</t>
+  </si>
+  <si>
+    <t>Salma Nabil</t>
+  </si>
+  <si>
+    <t>recep123</t>
+  </si>
+  <si>
+    <t>R002</t>
+  </si>
+  <si>
+    <t>Hany Khaled</t>
+  </si>
+  <si>
+    <t>desk456</t>
+  </si>
+  <si>
+    <t>R003</t>
+  </si>
+  <si>
+    <t>Mai Adel</t>
+  </si>
+  <si>
+    <t>front789</t>
+  </si>
+  <si>
+    <t>R004</t>
+  </si>
+  <si>
+    <t>Tarek Sami</t>
+  </si>
+  <si>
+    <t>check101</t>
+  </si>
+  <si>
+    <t>R005</t>
+  </si>
+  <si>
+    <t>Noura Ehab</t>
+  </si>
+  <si>
+    <t>entry202</t>
+  </si>
+  <si>
+    <t>R006</t>
+  </si>
+  <si>
+    <t>Ziad Mostafa</t>
+  </si>
+  <si>
+    <t>welcome303</t>
+  </si>
+  <si>
+    <t>R007</t>
+  </si>
+  <si>
+    <t>Rasha Omar</t>
+  </si>
+  <si>
+    <t>gate404</t>
+  </si>
+  <si>
+    <t>R008</t>
+  </si>
+  <si>
+    <t>Amir Fady</t>
+  </si>
+  <si>
+    <t>front505</t>
+  </si>
+  <si>
+    <t>R009</t>
+  </si>
+  <si>
+    <t>Hoda Yasser</t>
+  </si>
+  <si>
+    <t>desk606</t>
+  </si>
+  <si>
+    <t>R010</t>
+  </si>
+  <si>
+    <t>Eslam Nour</t>
+  </si>
+  <si>
+    <t>check707</t>
+  </si>
+  <si>
     <t>Name Code</t>
   </si>
   <si>
@@ -112,12 +727,111 @@
     <t>Is Available</t>
   </si>
   <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>Nasr City</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>Maadi</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>New Cairo</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>Heliopolis</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>6th of October</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>Sheikh Zayed</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>Zamalek</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>Dokki</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>Mohandessin</t>
+  </si>
+  <si>
+    <t>PC10</t>
+  </si>
+  <si>
+    <t>Giza</t>
+  </si>
+  <si>
     <t>Day</t>
   </si>
   <si>
     <t>Is Confirmed</t>
   </si>
   <si>
+    <t>B001</t>
+  </si>
+  <si>
+    <t>B002</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>B003</t>
+  </si>
+  <si>
+    <t>B004</t>
+  </si>
+  <si>
+    <t>B005</t>
+  </si>
+  <si>
+    <t>B006</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>B007</t>
+  </si>
+  <si>
+    <t>B008</t>
+  </si>
+  <si>
+    <t>B009</t>
+  </si>
+  <si>
+    <t>B010</t>
+  </si>
+  <si>
     <t>Trainee ID</t>
   </si>
   <si>
@@ -128,19 +842,57 @@
   </si>
   <si>
     <t>End Date</t>
+  </si>
+  <si>
+    <t>T001</t>
+  </si>
+  <si>
+    <t>T002</t>
+  </si>
+  <si>
+    <t>T003</t>
+  </si>
+  <si>
+    <t>T004</t>
+  </si>
+  <si>
+    <t>T005</t>
+  </si>
+  <si>
+    <t>T006</t>
+  </si>
+  <si>
+    <t>T007</t>
+  </si>
+  <si>
+    <t>T008</t>
+  </si>
+  <si>
+    <t>T009</t>
+  </si>
+  <si>
+    <t>T010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,7 +903,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,18 +911,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -193,44 +971,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -257,15 +1035,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -292,7 +1069,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -304,525 +1080,2233 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
+      <c r="B1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45778</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>46143</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45782</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45873</v>
+      </c>
+      <c r="F3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45787</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>46152</v>
+      </c>
+      <c r="F4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45788</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45975</v>
+      </c>
+      <c r="F5">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>46162</v>
+      </c>
+      <c r="F6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45790</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45893</v>
+      </c>
+      <c r="F7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45791</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>46174</v>
+      </c>
+      <c r="F8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45792</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5">
+        <v>45995</v>
+      </c>
+      <c r="F9">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45793</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>46183</v>
+      </c>
+      <c r="F10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45794</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>45914</v>
+      </c>
+      <c r="F11">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>14000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6">
         <v>18</v>
       </c>
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
+      <c r="B1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2">
+        <v>300</v>
+      </c>
+      <c r="E2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3">
+        <v>400</v>
+      </c>
+      <c r="E3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5">
+        <v>350</v>
+      </c>
+      <c r="E5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6">
+        <v>450</v>
+      </c>
+      <c r="E6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7">
+        <v>320</v>
+      </c>
+      <c r="E7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8">
+        <v>410</v>
+      </c>
+      <c r="E8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9">
+        <v>1.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9">
+        <v>210</v>
+      </c>
+      <c r="E9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10">
+        <v>360</v>
+      </c>
+      <c r="E10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11">
+        <v>460</v>
+      </c>
+      <c r="E11" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11">
+        <v>8900</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
+      <c r="A1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+      <c r="C3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4">
+        <v>280</v>
+      </c>
+      <c r="C4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5">
+        <v>270</v>
+      </c>
+      <c r="C5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6">
+        <v>260</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7">
+        <v>290</v>
+      </c>
+      <c r="C7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8">
+        <v>255</v>
+      </c>
+      <c r="C8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9">
+        <v>275</v>
+      </c>
+      <c r="C9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10">
+        <v>265</v>
+      </c>
+      <c r="C10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11">
+        <v>285</v>
+      </c>
+      <c r="C11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
+      <c r="B1" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45809</v>
+      </c>
+      <c r="C2">
+        <v>250</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45810</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="5">
+        <v>45811</v>
+      </c>
+      <c r="C4">
+        <v>280</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45812</v>
+      </c>
+      <c r="C5">
+        <v>270</v>
+      </c>
+      <c r="D5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45813</v>
+      </c>
+      <c r="C6">
+        <v>260</v>
+      </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45814</v>
+      </c>
+      <c r="C7">
+        <v>290</v>
+      </c>
+      <c r="D7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45815</v>
+      </c>
+      <c r="C8">
+        <v>255</v>
+      </c>
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45816</v>
+      </c>
+      <c r="C9">
+        <v>275</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45817</v>
+      </c>
+      <c r="C10">
+        <v>265</v>
+      </c>
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45818</v>
+      </c>
+      <c r="C11">
+        <v>285</v>
+      </c>
+      <c r="D11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>